--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_BankRecon_TestData.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_BankRecon_TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{624BAD7A-4D1F-44E4-B2E7-0440FA267C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD8E6AB4-524C-4A1D-8344-AC9F1F9EA674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BankReconciliationTestData" sheetId="1" r:id="rId1"/>
     <sheet name="BankReconFormatTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="Reference file" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -112,15 +113,15 @@
     <t>KUBS_TAX_UAT_TC_000_D1</t>
   </si>
   <si>
+    <t>IDFC BANK</t>
+  </si>
+  <si>
     <t>KUBS_TAX_UAT_002_001_TC_001</t>
   </si>
   <si>
     <t>KUBS_TAX_UAT_002_001_TC_001_D1</t>
   </si>
   <si>
-    <t>IDFC BANK</t>
-  </si>
-  <si>
     <t>Jan</t>
   </si>
   <si>
@@ -145,6 +146,9 @@
     <t>KUBS_TAX_UAT_002_001_TC_003_D1</t>
   </si>
   <si>
+    <t>C:\Users\ININDC00091\git\AzentioAutomationFramework\DeveshFW_Excel\ARAP_AzentioAutomationFramework_Excel\BankReconTextCsvFiles\IDFC_RECON05.txt</t>
+  </si>
+  <si>
     <t>KUBS_TAX_UAT_002_002_TC_001</t>
   </si>
   <si>
@@ -208,9 +212,6 @@
     <t>KUBS_TAX_UAT_002_002_TC_007_D1</t>
   </si>
   <si>
-    <t>C:\Users\ININDC00091\git\AzentioAutomationFramework\DeveshFW_Excel\ARAP_AzentioAutomationFramework_Excel\BankReconTextCsvFiles\IDFC_RECON05.txt</t>
-  </si>
-  <si>
     <t>KUBS_TAX_UAT_002_003_TC_001</t>
   </si>
   <si>
@@ -232,20 +233,85 @@
     <t>KUBS_TAX_UAT_002_003_TC_003_D1</t>
   </si>
   <si>
+    <t>KUBS_TAX_UAT_003_001_TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_001_TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_002</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_002_D1</t>
+  </si>
+  <si>
+    <t>RRN0021</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_003</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_003_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_004</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_004_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_005</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_003_002_TC_005_D1</t>
+  </si>
+  <si>
+    <t>RRN001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_004_001_TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_004_001_TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_004_001_TC_002</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_004_001_TC_002_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_004_001_TC_003</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_004_001_TC_003_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_005_001_TC_001</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_005_001_TC_001_D1</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_005_001_TC_002</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_005_001_TC_002_D1</t>
+  </si>
+  <si>
     <t>KUBS_TAX_UAT_002_002_TC_000</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fully Matched</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -409,6 +475,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2145FA7-1DE3-CBFD-E01B-051DFE81A7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9886950" cy="5553075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,30 +823,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y1" sqref="Y1"/>
+      <pane xSplit="1" topLeftCell="I16" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P26" sqref="P25:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="15" max="19" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.2265625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.859375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="8.765625" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.5078125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="11.30859375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="1" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="19" width="21.5703125" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -821,8 +938,8 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="9">
-        <v>197</v>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -848,33 +965,33 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G3" s="5">
+        <v>28</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="5">
         <v>29</v>
-      </c>
-      <c r="F3" s="5">
-        <v>3232999123</v>
-      </c>
-      <c r="G3" s="5">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2023</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="5">
-        <v>19</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>30</v>
@@ -910,25 +1027,25 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G4" s="5">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5">
         <v>29</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3232999123</v>
-      </c>
-      <c r="G4" s="5">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2023</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="5">
-        <v>19</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>30</v>
@@ -964,26 +1081,26 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G5" s="5">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="5">
         <v>29</v>
       </c>
-      <c r="F5" s="5">
-        <v>3232999123</v>
-      </c>
-      <c r="G5" s="5">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="5">
-        <v>2023</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="5">
-        <v>19</v>
-      </c>
       <c r="L5" s="5" t="s">
         <v>30</v>
       </c>
@@ -994,7 +1111,7 @@
         <v>31</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1010,34 +1127,34 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G6" s="5">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="5">
         <v>29</v>
       </c>
-      <c r="F6" s="5">
-        <v>3232999123</v>
-      </c>
-      <c r="G6" s="5">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2023</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="5">
-        <v>19</v>
-      </c>
       <c r="L6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1048,7 +1165,7 @@
         <v>31</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1064,34 +1181,34 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G7" s="5">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="5">
         <v>29</v>
       </c>
-      <c r="F7" s="5">
-        <v>3232999123</v>
-      </c>
-      <c r="G7" s="5">
-        <v>18</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2023</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="5">
-        <v>19</v>
-      </c>
       <c r="L7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1102,10 +1219,10 @@
         <v>31</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -1120,34 +1237,34 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G8" s="5">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="5">
         <v>29</v>
       </c>
-      <c r="F8" s="5">
-        <v>3232999123</v>
-      </c>
-      <c r="G8" s="5">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2023</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="5">
-        <v>19</v>
-      </c>
       <c r="L8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1158,10 +1275,10 @@
         <v>31</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -1176,34 +1293,34 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G9" s="5">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5">
         <v>29</v>
       </c>
-      <c r="F9" s="5">
-        <v>3232999123</v>
-      </c>
-      <c r="G9" s="5">
-        <v>18</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="5">
-        <v>2023</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="5">
-        <v>19</v>
-      </c>
       <c r="L9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1214,15 +1331,15 @@
         <v>31</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -1234,34 +1351,34 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G10" s="5">
+        <v>28</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="5">
         <v>29</v>
       </c>
-      <c r="F10" s="5">
-        <v>3232999123</v>
-      </c>
-      <c r="G10" s="5">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="5">
-        <v>2023</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="5">
-        <v>19</v>
-      </c>
       <c r="L10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1272,15 +1389,15 @@
         <v>31</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
@@ -1292,15 +1409,15 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5">
         <v>3232999123</v>
@@ -1330,19 +1447,19 @@
         <v>31</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
@@ -1354,21 +1471,21 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="5">
         <v>3232999123</v>
       </c>
       <c r="G12" s="5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>30</v>
@@ -1380,7 +1497,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>30</v>
@@ -1392,30 +1509,20 @@
         <v>31</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26">
@@ -1428,7 +1535,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
         <v>3232999123</v>
@@ -1464,7 +1571,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -1484,7 +1591,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="5">
         <v>3232999123</v>
@@ -1514,7 +1621,7 @@
         <v>31</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1538,7 +1645,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="5">
         <v>3232999123</v>
@@ -1568,7 +1675,7 @@
         <v>31</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -1581,6 +1688,622 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G16" s="5">
+        <v>20</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="5">
+        <v>21</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="5"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G17" s="5">
+        <v>20</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="5">
+        <v>21</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="5"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G18" s="5">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="5">
+        <v>29</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G19" s="5">
+        <v>20</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="5">
+        <v>21</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G20" s="5">
+        <v>28</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="5">
+        <v>29</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G21" s="5">
+        <v>28</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="5">
+        <v>29</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G22" s="5">
+        <v>28</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="5">
+        <v>29</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G23" s="5">
+        <v>28</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="5">
+        <v>29</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G24" s="5">
+        <v>28</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="5">
+        <v>29</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G25" s="5">
+        <v>28</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="5">
+        <v>29</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3232999123</v>
+      </c>
+      <c r="G26" s="5">
+        <v>28</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="5">
+        <v>29</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1597,12 +2320,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="1" max="1" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1627,7 +2350,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -1641,15 +2364,15 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5">
         <v>3232999123</v>
@@ -1658,4 +2381,17 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2066325A-3E4E-42FA-9F52-4370F2871A2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_BankRecon_TestData.xlsx
+++ b/ARAP_AzentioAutomationFramework_Excel/Test-data/KUBS_BankRecon_TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD8E6AB4-524C-4A1D-8344-AC9F1F9EA674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CDB5EB5-F098-40B8-AA55-7F6BFCDC8157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="98">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -303,6 +303,24 @@
   </si>
   <si>
     <t>KUBS_TAX_UAT_005_001_TC_002_D1</t>
+  </si>
+  <si>
+    <t>PNB</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>C:\Users\ININDC00091\git\AzentioAutomationFramework\DeveshFW_Excel\ARAP_AzentioAutomationFramework_Excel\BankReconTextCsvFiles\PNB_RECON.txt</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_005_001_TC_003</t>
+  </si>
+  <si>
+    <t>KUBS_TAX_UAT_005_001_TC_003_D1</t>
   </si>
   <si>
     <t>KUBS_TAX_UAT_002_002_TC_000</t>
@@ -823,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I16" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P26" sqref="P25:Q26"/>
+      <pane xSplit="1" topLeftCell="F21" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1705,7 +1723,7 @@
         <v>3232999123</v>
       </c>
       <c r="G16" s="5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>30</v>
@@ -1717,7 +1735,7 @@
         <v>31</v>
       </c>
       <c r="K16" s="5">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>30</v>
@@ -1759,7 +1777,7 @@
         <v>3232999123</v>
       </c>
       <c r="G17" s="5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>30</v>
@@ -1771,7 +1789,7 @@
         <v>31</v>
       </c>
       <c r="K17" s="5">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>30</v>
@@ -2261,37 +2279,37 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F26" s="5">
-        <v>3232999123</v>
+        <v>32423242555</v>
       </c>
       <c r="G26" s="5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="I26" s="5">
         <v>2023</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="K26" s="5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="M26" s="5">
         <v>2023</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -2304,6 +2322,60 @@
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="5">
+        <v>32423242555</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" s="5">
+        <v>3</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27" s="5">
+        <v>2023</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2350,7 +2422,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
